--- a/xls/gameShopConfig.xlsx
+++ b/xls/gameShopConfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="12615" yWindow="405" windowWidth="14805" windowHeight="7950"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
   <si>
     <t>id[!.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,10 +244,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>货币类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +370,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -411,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +447,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,7 +660,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A25" sqref="A25:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -1050,7 +1051,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>33</v>
@@ -1073,7 +1074,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>39</v>
@@ -1096,7 +1097,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>32</v>
@@ -1224,119 +1225,49 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>1013013</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>1013023</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>1013033</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>1013043</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>1013053</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xls/gameShopConfig.xlsx
+++ b/xls/gameShopConfig.xlsx
@@ -29,6 +29,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -38,6 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="83">
   <si>
     <t>id[!.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,26 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>α元素发带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>α元素球衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>α元素球裤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>α元素护腿板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>α元素球鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +232,124 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内马尔碎片</t>
+  </si>
+  <si>
+    <t>罗伊斯碎片</t>
+  </si>
+  <si>
+    <t>J罗碎片</t>
+  </si>
+  <si>
+    <t>鲁尼碎片</t>
+  </si>
+  <si>
+    <t>张玉宁碎片</t>
+  </si>
+  <si>
+    <t>奥巴梅杨碎片</t>
+  </si>
+  <si>
+    <t>拉希姆·斯特林碎片</t>
+  </si>
+  <si>
+    <t>费尔南多·托雷斯碎片</t>
+  </si>
+  <si>
+    <t>伊涅斯塔碎片</t>
+  </si>
+  <si>
+    <t>比达尔碎片</t>
+  </si>
+  <si>
+    <t>大卫·席尔瓦碎片</t>
+  </si>
+  <si>
+    <t>迪玛利亚碎片</t>
+  </si>
+  <si>
+    <t>佩佩碎片</t>
+  </si>
+  <si>
+    <t>阿尔巴碎片</t>
+  </si>
+  <si>
+    <t>博努奇碎片</t>
+  </si>
+  <si>
+    <t>基耶利尼碎片</t>
+  </si>
+  <si>
+    <t>胡安弗兰碎片</t>
+  </si>
+  <si>
+    <t>德赫亚碎片</t>
+  </si>
+  <si>
+    <t>库尔图瓦碎片</t>
+  </si>
+  <si>
+    <t>郑大世碎片</t>
+  </si>
+  <si>
+    <t>哈利勒碎片</t>
+  </si>
+  <si>
+    <t>卡希尔碎片</t>
+  </si>
+  <si>
+    <t>孙兴民碎片</t>
+  </si>
+  <si>
+    <t>林良铭碎片</t>
+  </si>
+  <si>
+    <t>本田圭佑碎片</t>
+  </si>
+  <si>
+    <t>奥马尔碎片</t>
+  </si>
+  <si>
+    <t>寄诚庸碎片</t>
+  </si>
+  <si>
+    <t>埃布埃碎片</t>
+  </si>
+  <si>
+    <t>长友佑都碎片</t>
+  </si>
+  <si>
+    <t>内田笃人碎片</t>
+  </si>
+  <si>
+    <t>郑智碎片</t>
+  </si>
+  <si>
+    <t>施瓦泽碎片</t>
+  </si>
+  <si>
+    <t>1170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
   </si>
 </sst>
 </file>
@@ -289,6 +389,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -296,15 +397,22 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -334,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -351,6 +459,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,10 +768,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -680,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -706,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -726,19 +837,19 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -749,19 +860,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -772,19 +883,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -795,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -818,19 +929,19 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -841,19 +952,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -864,19 +975,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -887,19 +998,19 @@
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -910,19 +1021,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -933,19 +1044,19 @@
         <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -956,19 +1067,19 @@
         <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -979,19 +1090,19 @@
         <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1002,19 +1113,19 @@
         <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1025,19 +1136,19 @@
         <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1048,19 +1159,19 @@
         <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1071,19 +1182,19 @@
         <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1094,180 +1205,1014 @@
         <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>1061032</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>1013012</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="5" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>1061062</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>1061092</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>1013022</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>1013032</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G22" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>1013042</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
+      <c r="A23" s="7">
+        <v>1062012</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>1013052</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>31</v>
+      <c r="A24" s="7">
+        <v>1062022</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="7">
+        <v>1062032</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="7">
+        <v>1062042</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="7">
+        <v>1062052</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="7">
+        <v>1062062</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="7">
+        <v>1062072</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>1062082</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>1062092</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>1062102</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>1062112</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>1062122</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>1062132</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>1062142</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>1062152</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>1062162</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>1063012</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>1063022</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>1063032</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>1063042</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>1063052</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>1063062</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>1063072</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>1063082</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>1063092</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>1063102</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>1063112</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>1063122</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>1063132</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C130" s="4"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1293,7 +2238,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
